--- a/dataAnalysis/csvFiles/specialGestures/swipe_to_right/schwingen_rechts__3.xlsx
+++ b/dataAnalysis/csvFiles/specialGestures/swipe_to_right/schwingen_rechts__3.xlsx
@@ -3563,11 +3563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="11465472"/>
-        <c:axId val="11467008"/>
+        <c:axId val="62265216"/>
+        <c:axId val="62266752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11465472"/>
+        <c:axId val="62265216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3576,7 +3576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11467008"/>
+        <c:crossAx val="62266752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3584,7 +3584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11467008"/>
+        <c:axId val="62266752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3595,7 +3595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11465472"/>
+        <c:crossAx val="62265216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6607,11 +6607,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="13053952"/>
-        <c:axId val="13055488"/>
+        <c:axId val="117776384"/>
+        <c:axId val="117777920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13053952"/>
+        <c:axId val="117776384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6620,7 +6620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13055488"/>
+        <c:crossAx val="117777920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6628,7 +6628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13055488"/>
+        <c:axId val="117777920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6639,7 +6639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13053952"/>
+        <c:crossAx val="117776384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6673,8 +6673,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>176214</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
